--- a/medicine/Enfance/Les_Pirates_de_Pompéi/Les_Pirates_de_Pompéi.xlsx
+++ b/medicine/Enfance/Les_Pirates_de_Pompéi/Les_Pirates_de_Pompéi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Pirates_de_Pomp%C3%A9i</t>
+          <t>Les_Pirates_de_Pompéi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Pirates de Pompéi (The Pirates of Pompeii) est le troisième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié au Royaume-Uni en 2002 et en France, aux éditions Milan, en 2003. L'action de ce roman historique se situe sous la Rome antique, à Pompéi.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Pirates_de_Pomp%C3%A9i</t>
+          <t>Les_Pirates_de_Pompéi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont quatre : Flavia, fille d'un riche armateur romain, Jonathan, un jeune chrétien, Nubia, l'esclave africaine, et Lupus, le jeune mendiant muet. Durant l'éruption du Vésuve, ils ont connu l'enfer. Ils ont survécu. Mais d'autres menaces les guettent...
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Pirates_de_Pomp%C3%A9i</t>
+          <t>Les_Pirates_de_Pompéi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), 2003,  (ISBN 978-2-7459-4757-4)
 Milan (Poche Histoire), 2011</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Pirates_de_Pomp%C3%A9i</t>
+          <t>Les_Pirates_de_Pompéi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
